--- a/output/frequencies/children/LAO_children_2017.xlsx
+++ b/output/frequencies/children/LAO_children_2017.xlsx
@@ -8,40 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a3di2022-my.sharepoint.com/personal/aaron_a3di2022_onmicrosoft_com/Documents/Alive &amp; Thrive/3_Country_II/output/frequencies/children/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_0FB58555BC6ACD60FCE1B281D59CA4B3F701292A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95BF2D93-A4A0-4361-B676-C42EC81A3947}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_0FB58555BCDA492A0CA0AE81D59CA4B3F701292A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC58330-3A39-48D3-84DE-850F6EA18A4B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excl_bf_weighted" sheetId="1" r:id="rId1"/>
     <sheet name="cont_1223_bf_weighted" sheetId="2" r:id="rId2"/>
-    <sheet name="COMB" sheetId="9" r:id="rId3"/>
+    <sheet name="mdd_ch_weighted" sheetId="3" r:id="rId3"/>
     <sheet name="mmf_ch_weighted" sheetId="4" r:id="rId4"/>
-    <sheet name="mdd_ch_weighted" sheetId="3" r:id="rId5"/>
-    <sheet name="mad_ch_weighted" sheetId="5" r:id="rId6"/>
-    <sheet name="stunting_ch_weighted" sheetId="6" r:id="rId7"/>
-    <sheet name="wasting_ch_weighted" sheetId="7" r:id="rId8"/>
-    <sheet name="overweight_ch_weighted" sheetId="8" r:id="rId9"/>
+    <sheet name="mad_ch_weighted" sheetId="5" r:id="rId5"/>
+    <sheet name="stunting_ch_weighted" sheetId="6" r:id="rId6"/>
+    <sheet name="wasting_ch_weighted" sheetId="7" r:id="rId7"/>
+    <sheet name="overweight_ch_weighted" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="35">
   <si>
     <t>excl_bf</t>
   </si>
@@ -152,9 +138,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,12 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -623,57 +605,57 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>44.6</v>
+        <v>41.5</v>
       </c>
       <c r="C10">
-        <v>210.5</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>46.8</v>
+        <v>44.6</v>
       </c>
       <c r="C11">
-        <v>440</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>46.8</v>
       </c>
       <c r="C12">
-        <v>357.8</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>41.5</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>120.4</v>
+        <v>357.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>53.3</v>
+        <v>46.4</v>
       </c>
       <c r="C14">
-        <v>315.5</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,13 +671,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>46.4</v>
+        <v>53.3</v>
       </c>
       <c r="C16">
-        <v>205.2</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,35 +704,35 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>34.799999999999997</v>
+        <v>68.2</v>
       </c>
       <c r="C19">
-        <v>610.9</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>68.2</v>
+        <v>62.8</v>
       </c>
       <c r="C20">
-        <v>41.4</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>62.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C21">
-        <v>161.6</v>
+        <v>610.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -826,16 +808,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -857,301 +834,277 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>42.7</v>
+      </c>
+      <c r="C3">
+        <v>1033.0999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="C4">
-        <v>1033.0999999999999</v>
+        <v>1170.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>42.9</v>
+        <v>49.4</v>
       </c>
       <c r="C5">
-        <v>1170.2</v>
+        <v>1548.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>27.3</v>
+      </c>
+      <c r="C6">
+        <v>654.6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>49.4</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C7">
-        <v>1548.7</v>
+        <v>1042.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>27.3</v>
+        <v>47.7</v>
       </c>
       <c r="C8">
-        <v>654.6</v>
+        <v>723.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>44.5</v>
+      </c>
+      <c r="C9">
+        <v>437.8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>38.700000000000003</v>
+        <v>18.8</v>
       </c>
       <c r="C10">
-        <v>1042.3</v>
+        <v>247.7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>47.7</v>
+        <v>63.8</v>
       </c>
       <c r="C11">
-        <v>723.2</v>
+        <v>414.3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="C12">
-        <v>437.8</v>
+        <v>841.9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>35.6</v>
+      </c>
+      <c r="C13">
+        <v>699.4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>63.8</v>
+        <v>39.6</v>
       </c>
       <c r="C14">
-        <v>414.3</v>
+        <v>417.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>45.5</v>
+        <v>52.6</v>
       </c>
       <c r="C15">
-        <v>841.9</v>
+        <v>468.7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>35.6</v>
+        <v>66.5</v>
       </c>
       <c r="C16">
-        <v>699.4</v>
+        <v>531.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>18.8</v>
+        <v>25.6</v>
       </c>
       <c r="C17">
-        <v>247.7</v>
+        <v>413.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C18">
+        <v>372.4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>66.5</v>
+        <v>54.9</v>
       </c>
       <c r="C19">
-        <v>531.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>52.6</v>
+        <v>55.2</v>
       </c>
       <c r="C20">
-        <v>468.7</v>
+        <v>317.39999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>39.6</v>
+        <v>30.6</v>
       </c>
       <c r="C21">
-        <v>417.2</v>
+        <v>1244.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>25.6</v>
+        <v>61.8</v>
       </c>
       <c r="C22">
-        <v>413.5</v>
+        <v>556.29999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>19.399999999999999</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C23">
-        <v>372.4</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>44.4</v>
+      </c>
+      <c r="C24">
+        <v>1840.8</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>30.6</v>
+        <v>34.5</v>
       </c>
       <c r="C25">
-        <v>1244.2</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>54.9</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C26">
-        <v>62.5</v>
+        <v>227.6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>55.2</v>
+        <v>43.8</v>
       </c>
       <c r="C27">
-        <v>317.39999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>61.8</v>
-      </c>
-      <c r="C28">
-        <v>556.29999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C29">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>44.4</v>
-      </c>
-      <c r="C31">
-        <v>1840.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32">
-        <v>34.5</v>
-      </c>
-      <c r="C32">
-        <v>362.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C34">
-        <v>227.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35">
-        <v>43.8</v>
-      </c>
-      <c r="C35">
         <v>1975.7</v>
       </c>
     </row>
@@ -1161,716 +1114,309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF0F08-6EEF-4CE3-92FD-DAC464630AAC}">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2">
         <v>35.700000000000003</v>
       </c>
-      <c r="D2" s="2">
-        <v>26.1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="C2">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>34.6</v>
+      </c>
+      <c r="C3">
+        <v>1593.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C4">
+        <v>1800.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>29.6</v>
+      </c>
+      <c r="C5">
+        <v>2426.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>967.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C7">
+        <v>1589.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>33.4</v>
+      </c>
+      <c r="C8">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="C4" s="2">
-        <v>34.6</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B9">
+        <v>30.2</v>
+      </c>
+      <c r="C9">
+        <v>707.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>59.7</v>
+      </c>
+      <c r="C10">
+        <v>414.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21.6</v>
+      </c>
+      <c r="C11">
+        <v>647.70000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>30.8</v>
+      </c>
+      <c r="C12">
+        <v>1270.5999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C13">
+        <v>1060.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C14">
+        <v>651.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>22.4</v>
+      </c>
+      <c r="C15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>23.2</v>
+      </c>
+      <c r="C16">
+        <v>808.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>47.5</v>
+      </c>
+      <c r="C17">
+        <v>614.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>58.5</v>
+      </c>
+      <c r="C18">
+        <v>571.20000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>34.9</v>
+      </c>
+      <c r="C19">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>25</v>
       </c>
-      <c r="E4" s="2">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="D5" s="2">
-        <v>27.1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="C7" s="2">
-        <v>29.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2">
-        <v>40.6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="C10" s="2">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30.5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>28.8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>63.5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C20">
+        <v>501.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>44.3</v>
+      </c>
+      <c r="C21">
+        <v>1928.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>22.6</v>
+      </c>
+      <c r="C22">
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2">
-        <v>38.9</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30.2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>62.8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21.6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44.8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>64.7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>30.8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>34.6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="D16" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <v>81.3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>59.7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>47.1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>60.2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>60.7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>22.4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F20" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2">
-        <v>66.7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="D21" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="E21" s="2">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="C22" s="2">
-        <v>47.5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>36.9</v>
-      </c>
-      <c r="E22" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="F22" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2">
-        <v>85.1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>58.5</v>
-      </c>
-      <c r="D23" s="2">
-        <v>47.7</v>
-      </c>
-      <c r="E23" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="F23" s="2">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>30.4</v>
+      </c>
+      <c r="C23">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>34.5</v>
+      </c>
+      <c r="C24">
+        <v>2814.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="C25" s="2">
-        <v>44.3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E25" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>41.5</v>
+      </c>
+      <c r="C25">
+        <v>579.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2">
-        <v>71.5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>34.9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>48.6</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="G26" s="2">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>45.9</v>
+      </c>
+      <c r="C26">
+        <v>344.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>62.9</v>
-      </c>
-      <c r="C27" s="2">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>50.2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2">
-        <v>22.6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="E28" s="2">
-        <v>43.3</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
-        <v>83.6</v>
-      </c>
-      <c r="C29" s="2">
-        <v>30.4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36.4</v>
-      </c>
-      <c r="F29" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>34.5</v>
       </c>
-      <c r="D31" s="2">
-        <v>25</v>
-      </c>
-      <c r="E31" s="2">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="F31" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2">
-        <v>70.8</v>
-      </c>
-      <c r="C32" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>31.6</v>
-      </c>
-      <c r="E32" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="2">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="C34" s="2">
-        <v>45.9</v>
-      </c>
-      <c r="D34" s="2">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E34" s="2">
-        <v>25.8</v>
-      </c>
-      <c r="F34" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2">
-        <v>67.8</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="D35" s="2">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="F35" s="2">
-        <v>9</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3.3</v>
+      <c r="C27">
+        <v>3049.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1878,9 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2184,18 +1728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2206,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>35.700000000000003</v>
+        <v>26.1</v>
       </c>
       <c r="C2">
         <v>3394</v>
@@ -2217,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>34.6</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1593.3</v>
@@ -2228,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>36.700000000000003</v>
+        <v>27.1</v>
       </c>
       <c r="C4">
         <v>1800.7</v>
@@ -2239,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>29.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C5">
         <v>2426.1</v>
@@ -2250,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>40.6</v>
       </c>
       <c r="C6">
         <v>967.8</v>
@@ -2261,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>39.700000000000003</v>
+        <v>30.5</v>
       </c>
       <c r="C7">
         <v>1589.8</v>
@@ -2272,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>33.4</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1097</v>
@@ -2283,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>30.2</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>707.2</v>
@@ -2294,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>59.7</v>
+        <v>47.1</v>
       </c>
       <c r="C10">
         <v>414.9</v>
@@ -2305,7 +1847,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>21.6</v>
+        <v>14.9</v>
       </c>
       <c r="C11">
         <v>647.70000000000005</v>
@@ -2316,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>30.8</v>
+        <v>20.5</v>
       </c>
       <c r="C12">
         <v>1270.5999999999999</v>
@@ -2327,7 +1869,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>40.799999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="C13">
         <v>1060.8</v>
@@ -2338,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>35.200000000000003</v>
+        <v>23.4</v>
       </c>
       <c r="C14">
         <v>651.4</v>
@@ -2349,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>22.4</v>
+        <v>14.8</v>
       </c>
       <c r="C15">
         <v>748</v>
@@ -2360,7 +1902,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>23.2</v>
+        <v>15.4</v>
       </c>
       <c r="C16">
         <v>808.9</v>
@@ -2371,7 +1913,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>47.5</v>
+        <v>36.9</v>
       </c>
       <c r="C17">
         <v>614.4</v>
@@ -2382,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>58.5</v>
+        <v>47.7</v>
       </c>
       <c r="C18">
         <v>571.20000000000005</v>
@@ -2393,7 +1935,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>34.9</v>
+        <v>27.8</v>
       </c>
       <c r="C19">
         <v>92.1</v>
@@ -2404,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C20">
         <v>501.1</v>
@@ -2415,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>44.3</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C21">
         <v>1928.5</v>
@@ -2426,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>22.6</v>
+        <v>13.7</v>
       </c>
       <c r="C22">
         <v>831.5</v>
@@ -2437,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>30.4</v>
+        <v>16.8</v>
       </c>
       <c r="C23">
         <v>40.9</v>
@@ -2448,7 +1990,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>2814.5</v>
@@ -2459,7 +2001,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>41.5</v>
+        <v>31.6</v>
       </c>
       <c r="C25">
         <v>579.5</v>
@@ -2470,7 +2012,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>45.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C26">
         <v>344.9</v>
@@ -2481,7 +2023,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>3049.1</v>
@@ -2493,18 +2035,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2515,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>26.1</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>3394</v>
+        <v>11372.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2526,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>1593.3</v>
+        <v>5539.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2537,10 +2077,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>27.1</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1800.7</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2548,10 +2088,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20.399999999999999</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C5">
-        <v>2426.1</v>
+        <v>8329.7999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2559,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>40.6</v>
+        <v>21.5</v>
       </c>
       <c r="C6">
-        <v>967.8</v>
+        <v>3042.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2570,10 +2110,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>30.5</v>
+        <v>28.8</v>
       </c>
       <c r="C7">
-        <v>1589.8</v>
+        <v>5455.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2581,10 +2121,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>38.9</v>
       </c>
       <c r="C8">
-        <v>1097</v>
+        <v>3559.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2592,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>707.2</v>
+        <v>2357.6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2603,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>47.1</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C10">
-        <v>414.9</v>
+        <v>1214.4000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2614,10 +2154,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14.9</v>
+        <v>44.8</v>
       </c>
       <c r="C11">
-        <v>647.70000000000005</v>
+        <v>2479.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2625,10 +2165,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20.5</v>
+        <v>34.6</v>
       </c>
       <c r="C12">
-        <v>1270.5999999999999</v>
+        <v>4486.1000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2636,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>31.5</v>
+        <v>27.5</v>
       </c>
       <c r="C13">
-        <v>1060.8</v>
+        <v>3192.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2647,10 +2187,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>23.4</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>651.4</v>
+        <v>2143.6999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2658,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C15">
-        <v>748</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2669,10 +2209,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>15.4</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>808.9</v>
+        <v>2914.6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2680,10 +2220,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>36.9</v>
+        <v>22.8</v>
       </c>
       <c r="C17">
-        <v>614.4</v>
+        <v>2019.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2691,10 +2231,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>47.7</v>
+        <v>13.9</v>
       </c>
       <c r="C18">
-        <v>571.20000000000005</v>
+        <v>1862.1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2702,10 +2242,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>27.8</v>
+        <v>48.6</v>
       </c>
       <c r="C19">
-        <v>92.1</v>
+        <v>309.60000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2713,10 +2253,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17.600000000000001</v>
+        <v>50.2</v>
       </c>
       <c r="C20">
-        <v>501.1</v>
+        <v>1658.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2724,10 +2264,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>33.799999999999997</v>
+        <v>23.2</v>
       </c>
       <c r="C21">
-        <v>1928.5</v>
+        <v>6411.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2735,10 +2275,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13.7</v>
+        <v>43.3</v>
       </c>
       <c r="C22">
-        <v>831.5</v>
+        <v>2875.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2746,10 +2286,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16.8</v>
+        <v>36.4</v>
       </c>
       <c r="C23">
-        <v>40.9</v>
+        <v>116.2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2757,10 +2297,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C24">
-        <v>2814.5</v>
+        <v>9469.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2768,10 +2308,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>31.6</v>
+        <v>29.5</v>
       </c>
       <c r="C25">
-        <v>579.5</v>
+        <v>1902.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2779,10 +2319,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>35.799999999999997</v>
+        <v>25.8</v>
       </c>
       <c r="C26">
-        <v>344.9</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2790,10 +2330,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C27">
-        <v>3049.1</v>
+        <v>10211.4</v>
       </c>
     </row>
   </sheetData>
@@ -2802,18 +2342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2824,10 +2362,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>11372.4</v>
+        <v>11358.7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2835,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="C3">
-        <v>5539.3</v>
+        <v>5526.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2846,10 +2384,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>9.4</v>
       </c>
       <c r="C4">
-        <v>5833</v>
+        <v>5832.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2857,10 +2395,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37.200000000000003</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C5">
-        <v>8329.7999999999993</v>
+        <v>8330.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2868,10 +2406,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>21.5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3042.6</v>
+        <v>3028.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2879,10 +2417,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>28.8</v>
+        <v>7.6</v>
       </c>
       <c r="C7">
-        <v>5455.2</v>
+        <v>5431.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2890,10 +2428,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>38.9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3559.6</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2901,10 +2439,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>10.7</v>
       </c>
       <c r="C9">
-        <v>2357.6</v>
+        <v>2367.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2912,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17.600000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="C10">
-        <v>1214.4000000000001</v>
+        <v>1197.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2923,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>44.8</v>
+        <v>10.5</v>
       </c>
       <c r="C11">
-        <v>2479.5</v>
+        <v>2497.1999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2934,10 +2472,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>34.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C12">
-        <v>4486.1000000000004</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2945,10 +2483,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>27.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C13">
-        <v>3192.5</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2956,10 +2494,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>9.6</v>
       </c>
       <c r="C14">
-        <v>2143.6999999999998</v>
+        <v>2135.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2967,10 +2505,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>40.799999999999997</v>
+        <v>9.4</v>
       </c>
       <c r="C15">
-        <v>2433</v>
+        <v>2439.1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2978,10 +2516,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>11.9</v>
       </c>
       <c r="C16">
-        <v>2914.6</v>
+        <v>2928.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2989,10 +2527,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22.8</v>
+        <v>6.5</v>
       </c>
       <c r="C17">
-        <v>2019.1</v>
+        <v>2016.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3000,10 +2538,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>13.9</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1862.1</v>
+        <v>1839.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3011,10 +2549,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>48.6</v>
+        <v>5.8</v>
       </c>
       <c r="C19">
-        <v>309.60000000000002</v>
+        <v>312.89999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3022,10 +2560,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>50.2</v>
+        <v>7.2</v>
       </c>
       <c r="C20">
-        <v>1658.8</v>
+        <v>1651.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3033,10 +2571,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>23.2</v>
+        <v>9.1</v>
       </c>
       <c r="C21">
-        <v>6411.9</v>
+        <v>6366.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3044,10 +2582,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>43.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C22">
-        <v>2875.9</v>
+        <v>2913.3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3055,10 +2593,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>36.4</v>
+        <v>12.1</v>
       </c>
       <c r="C23">
-        <v>116.2</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3066,10 +2604,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>33.700000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="C24">
-        <v>9469.9</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3077,10 +2615,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>29.5</v>
+        <v>8.4</v>
       </c>
       <c r="C25">
-        <v>1902.5</v>
+        <v>1889.7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3088,10 +2626,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>25.8</v>
+        <v>9.1</v>
       </c>
       <c r="C26">
-        <v>1161</v>
+        <v>1149.4000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3099,10 +2637,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>33.799999999999997</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>10211.4</v>
+        <v>10209.4</v>
       </c>
     </row>
   </sheetData>
@@ -3111,330 +2649,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>11358.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>8.6</v>
-      </c>
-      <c r="C3">
-        <v>5526.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>9.4</v>
-      </c>
-      <c r="C4">
-        <v>5832.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C5">
-        <v>8330.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>3028.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>7.6</v>
-      </c>
-      <c r="C7">
-        <v>5431.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10.7</v>
-      </c>
-      <c r="C9">
-        <v>2367.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>7.1</v>
-      </c>
-      <c r="C10">
-        <v>1197.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>10.5</v>
-      </c>
-      <c r="C11">
-        <v>2497.1999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C12">
-        <v>4473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C13">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>9.6</v>
-      </c>
-      <c r="C14">
-        <v>2135.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>9.4</v>
-      </c>
-      <c r="C15">
-        <v>2439.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>11.9</v>
-      </c>
-      <c r="C16">
-        <v>2928.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>6.5</v>
-      </c>
-      <c r="C17">
-        <v>2016.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>1839.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>5.8</v>
-      </c>
-      <c r="C19">
-        <v>312.89999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>7.2</v>
-      </c>
-      <c r="C20">
-        <v>1651.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>9.1</v>
-      </c>
-      <c r="C21">
-        <v>6366.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C22">
-        <v>2913.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>12.1</v>
-      </c>
-      <c r="C23">
-        <v>114.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>9.1</v>
-      </c>
-      <c r="C24">
-        <v>9469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>8.4</v>
-      </c>
-      <c r="C25">
-        <v>1889.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>9.1</v>
-      </c>
-      <c r="C26">
-        <v>1149.4000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>10209.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
